--- a/data/trans_orig/P6708-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6708-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>12678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7088</v>
+        <v>6802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22158</v>
+        <v>21504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06963572130849503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03893237645000287</v>
+        <v>0.0373635665797379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1217070794812234</v>
+        <v>0.1181173064657549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -764,19 +764,19 @@
         <v>18723</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11962</v>
+        <v>11918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27565</v>
+        <v>28527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1365233548590264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08722201115777176</v>
+        <v>0.08690110765103091</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2009977237369309</v>
+        <v>0.2080151607724624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -785,19 +785,19 @@
         <v>31401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22429</v>
+        <v>22056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43656</v>
+        <v>43429</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09837308116213131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07026733735255053</v>
+        <v>0.06909852819725437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1367658842354578</v>
+        <v>0.1360562345198977</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>9602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4939</v>
+        <v>4953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18005</v>
+        <v>17315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05274012223178486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02712911705635035</v>
+        <v>0.02720607209497996</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09889913052245687</v>
+        <v>0.09510409204791742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -835,19 +835,19 @@
         <v>12451</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6423</v>
+        <v>6560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21154</v>
+        <v>21464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0907882051840984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04683294761823743</v>
+        <v>0.04783263325402536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.154249279937545</v>
+        <v>0.156516376977353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -856,19 +856,19 @@
         <v>22052</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13537</v>
+        <v>13576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33399</v>
+        <v>33021</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06908696235007981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04240834048018367</v>
+        <v>0.04253137891492362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1046326800507524</v>
+        <v>0.1034490902910267</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>36219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26273</v>
+        <v>26413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48022</v>
+        <v>48262</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1989419502166156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1443089054842693</v>
+        <v>0.1450800796372638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2637701436039464</v>
+        <v>0.265091539941825</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -906,19 +906,19 @@
         <v>19541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10613</v>
+        <v>11749</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29773</v>
+        <v>29027</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1424874658790415</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07738954455227387</v>
+        <v>0.08566916645232811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2171020591764067</v>
+        <v>0.2116591161059014</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -927,19 +927,19 @@
         <v>55760</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42958</v>
+        <v>42475</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70758</v>
+        <v>70622</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.174687050683734</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1345791426345957</v>
+        <v>0.133068817579858</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2216750359182855</v>
+        <v>0.2212463972367326</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>34124</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25963</v>
+        <v>24359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46016</v>
+        <v>47478</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1874320322620655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1426069938791265</v>
+        <v>0.1337971457999307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2527537300451803</v>
+        <v>0.2607823989069293</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -977,19 +977,19 @@
         <v>22554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14669</v>
+        <v>15086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32871</v>
+        <v>32860</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1644588408099137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1069630918318095</v>
+        <v>0.1100042352631152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2396925163784935</v>
+        <v>0.2396128459113858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -998,19 +998,19 @@
         <v>56678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43108</v>
+        <v>42381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70240</v>
+        <v>70817</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1775619137558066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1350504696331123</v>
+        <v>0.1327724414863361</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2200505287916912</v>
+        <v>0.2218589714618081</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>89437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75609</v>
+        <v>75677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>102954</v>
+        <v>102927</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4912501739810389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4152972025249556</v>
+        <v>0.4156732841270238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5654992358554642</v>
+        <v>0.5653518506285259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -1048,19 +1048,19 @@
         <v>63871</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51990</v>
+        <v>52152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76103</v>
+        <v>75272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.46574213326792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3791017226239016</v>
+        <v>0.3802869835055954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5549305143257186</v>
+        <v>0.5488714908467204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>146</v>
@@ -1069,19 +1069,19 @@
         <v>153308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137193</v>
+        <v>134682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>170265</v>
+        <v>170971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4802909920482483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4298029565746795</v>
+        <v>0.4219365376616278</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.533414321294108</v>
+        <v>0.5356238398323999</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>80872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64309</v>
+        <v>64681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99212</v>
+        <v>99768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.088906973265933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07069861499004219</v>
+        <v>0.07110716088753694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.109069362995307</v>
+        <v>0.1096803156091329</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1194,19 +1194,19 @@
         <v>52746</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39209</v>
+        <v>39847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68320</v>
+        <v>67737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09258943237218036</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06882650702441116</v>
+        <v>0.06994671935465366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1199286106692732</v>
+        <v>0.1189047716926739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -1215,19 +1215,19 @@
         <v>133618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110934</v>
+        <v>112622</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157571</v>
+        <v>158299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09032507901093412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0749911079955923</v>
+        <v>0.07613239341813967</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.106517440730814</v>
+        <v>0.107009710132551</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>80544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65395</v>
+        <v>64239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100037</v>
+        <v>100101</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08854654884072169</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0718925490252158</v>
+        <v>0.07062168535481357</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1099761938217483</v>
+        <v>0.1100464338576446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -1265,19 +1265,19 @@
         <v>52623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39984</v>
+        <v>40789</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>67495</v>
+        <v>68912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09237329029562111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0701867213851385</v>
+        <v>0.07159975677915176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1184797682602719</v>
+        <v>0.1209681591781951</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -1286,19 +1286,19 @@
         <v>133167</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111991</v>
+        <v>111094</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158646</v>
+        <v>157390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09002021735549767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07570524383922345</v>
+        <v>0.07509943405925582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1072444877935859</v>
+        <v>0.1063952099323299</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>191088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>166540</v>
+        <v>166253</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>215633</v>
+        <v>216500</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.210073902659101</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1830867443140119</v>
+        <v>0.1827711160062242</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2370577281849779</v>
+        <v>0.2380111111074666</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>116</v>
@@ -1336,19 +1336,19 @@
         <v>127074</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>107433</v>
+        <v>105973</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>148031</v>
+        <v>147115</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.223065090657151</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1885868477527363</v>
+        <v>0.1860244702964038</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.259852266390094</v>
+        <v>0.2582436995260725</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>305</v>
@@ -1357,19 +1357,19 @@
         <v>318162</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>283455</v>
+        <v>284571</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>350683</v>
+        <v>350547</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2150767765004343</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1916147038804039</v>
+        <v>0.1923691422417178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2370608602390417</v>
+        <v>0.2369685959818192</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>222617</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195299</v>
+        <v>194182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249910</v>
+        <v>247793</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2447358845715847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.214703236271201</v>
+        <v>0.2134750209850515</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2747404567951668</v>
+        <v>0.2724131047676642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -1407,19 +1407,19 @@
         <v>140056</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121063</v>
+        <v>120137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>163967</v>
+        <v>161495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2458525837248008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2125124685566969</v>
+        <v>0.2108873979214284</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2878252745468565</v>
+        <v>0.2834871720997376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>346</v>
@@ -1428,19 +1428,19 @@
         <v>362673</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>325632</v>
+        <v>330482</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>394648</v>
+        <v>397117</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2451659226083757</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2201259039997773</v>
+        <v>0.2234046113624849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2667806406264756</v>
+        <v>0.2684495163370775</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>334502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>305767</v>
+        <v>306169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364747</v>
+        <v>367058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3677366906626596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3361473489097813</v>
+        <v>0.3365889880460632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4009873281349982</v>
+        <v>0.4035272203517892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>181</v>
@@ -1478,19 +1478,19 @@
         <v>197175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174676</v>
+        <v>174790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>221803</v>
+        <v>221744</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3461196029502467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3066252651718629</v>
+        <v>0.3068239399583938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3893512806844041</v>
+        <v>0.3892473216993114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>494</v>
@@ -1499,19 +1499,19 @@
         <v>531677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>491628</v>
+        <v>492831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>569606</v>
+        <v>570548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3594120045247582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3323387236196022</v>
+        <v>0.3331523389579768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3850519954398656</v>
+        <v>0.3856884585913328</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>12651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6434</v>
+        <v>6075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22697</v>
+        <v>22954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04000105439312668</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02034376288976633</v>
+        <v>0.01920761843535676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07176876315730407</v>
+        <v>0.07258107459565147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1624,19 +1624,19 @@
         <v>18401</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10662</v>
+        <v>11091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31164</v>
+        <v>27877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07833561815099371</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04539190406116886</v>
+        <v>0.04721576245286681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1326718358059869</v>
+        <v>0.1186772802435873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1645,19 +1645,19 @@
         <v>31051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21273</v>
+        <v>21096</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45178</v>
+        <v>45896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05633889575327523</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03859715879136556</v>
+        <v>0.03827678658894101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0819705225024024</v>
+        <v>0.08327181794472374</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>16308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8547</v>
+        <v>8771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27644</v>
+        <v>28414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0515664579984122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02702620371151601</v>
+        <v>0.02773376169815553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08741145685315353</v>
+        <v>0.08984528605611759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1695,19 +1695,19 @@
         <v>11987</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6000</v>
+        <v>6565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20667</v>
+        <v>22506</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05103239769604064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02554350877881705</v>
+        <v>0.02794916888341626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08798372974411257</v>
+        <v>0.09581177847304456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1716,19 +1716,19 @@
         <v>28296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17667</v>
+        <v>18176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42034</v>
+        <v>42212</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05133884636959566</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03205486516535076</v>
+        <v>0.03297758636353579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0762648382754245</v>
+        <v>0.07658806153089059</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>58693</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44924</v>
+        <v>44365</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>74010</v>
+        <v>72812</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1855857434670458</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1420476203648595</v>
+        <v>0.1402822495878688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2340187748326843</v>
+        <v>0.2302291984719491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1766,19 +1766,19 @@
         <v>54954</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42990</v>
+        <v>40868</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70638</v>
+        <v>69566</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2339502619692743</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1830152622026004</v>
+        <v>0.1739844488183645</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.300717124724227</v>
+        <v>0.2961542510412914</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>105</v>
@@ -1787,19 +1787,19 @@
         <v>113647</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93864</v>
+        <v>94600</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135548</v>
+        <v>133831</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2061982600393055</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1703044323899384</v>
+        <v>0.1716391974774197</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.245935792007774</v>
+        <v>0.2428202321554871</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>89844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73700</v>
+        <v>74148</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107429</v>
+        <v>106308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2840846510781138</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2330384177159163</v>
+        <v>0.2344552684601904</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3396895755015447</v>
+        <v>0.3361440168638232</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1837,19 +1837,19 @@
         <v>62237</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47071</v>
+        <v>48736</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77136</v>
+        <v>78679</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2649540356224713</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2003891856308859</v>
+        <v>0.2074775195652581</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3283803301371364</v>
+        <v>0.3349495367929785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -1858,19 +1858,19 @@
         <v>152081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130980</v>
+        <v>129424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174240</v>
+        <v>175836</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2759313572931507</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2376463034677631</v>
+        <v>0.2348237918733726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3161367417998765</v>
+        <v>0.3190326334509182</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>138762</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>120955</v>
+        <v>120676</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>157753</v>
+        <v>159353</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4387620930633014</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3824565486959368</v>
+        <v>0.3815745847137163</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4988138795065238</v>
+        <v>0.5038728922096037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1908,19 +1908,19 @@
         <v>87318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72414</v>
+        <v>71619</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104319</v>
+        <v>102766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.37172768656122</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3082777178706782</v>
+        <v>0.3048936703689614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4441035615286155</v>
+        <v>0.4374942979599773</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>201</v>
@@ -1929,19 +1929,19 @@
         <v>226079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>202286</v>
+        <v>200748</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>249265</v>
+        <v>250142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.410192640544673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3670230467515629</v>
+        <v>0.3642320523780415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4522597124515447</v>
+        <v>0.453851869097154</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>106200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88167</v>
+        <v>86251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130419</v>
+        <v>129977</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07542957932613731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06262115907247137</v>
+        <v>0.06126049622704972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0926313694539183</v>
+        <v>0.09231702928059121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -2054,19 +2054,19 @@
         <v>89869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73624</v>
+        <v>72020</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>108293</v>
+        <v>107497</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09543202363582828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07818093469342641</v>
+        <v>0.0764779096655147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.114995734017505</v>
+        <v>0.1141512065246916</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>180</v>
@@ -2075,19 +2075,19 @@
         <v>196070</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169439</v>
+        <v>170514</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>225282</v>
+        <v>224252</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08344630478302047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07211262519896883</v>
+        <v>0.07256985618463284</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09587899217382539</v>
+        <v>0.0954407107063874</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>106454</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>86097</v>
+        <v>87395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>126971</v>
+        <v>129207</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07560983546799621</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06115107895511676</v>
+        <v>0.06207315001822351</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09018201315585062</v>
+        <v>0.0917703666548043</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>72</v>
@@ -2125,19 +2125,19 @@
         <v>77061</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60112</v>
+        <v>62179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96605</v>
+        <v>95032</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08183052798336583</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0638333120718875</v>
+        <v>0.06602752411095526</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1025851579606463</v>
+        <v>0.1009145250185162</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>168</v>
@@ -2146,19 +2146,19 @@
         <v>183515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>155510</v>
+        <v>156208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>211803</v>
+        <v>214742</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0781030099658372</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06618426505340527</v>
+        <v>0.06648128220327328</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09014253019671729</v>
+        <v>0.09139322280286133</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>286000</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>257127</v>
+        <v>254900</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>318841</v>
+        <v>318100</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2031338104396354</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1826263102942535</v>
+        <v>0.181044483294869</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2264590569379187</v>
+        <v>0.2259326651934669</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>183</v>
@@ -2196,19 +2196,19 @@
         <v>201569</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>175039</v>
+        <v>177879</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227886</v>
+        <v>229031</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2140458841988146</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1858731229718685</v>
+        <v>0.1888889225739056</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2419911743288642</v>
+        <v>0.2432078605210799</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>461</v>
@@ -2217,19 +2217,19 @@
         <v>487569</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>446297</v>
+        <v>448377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>531269</v>
+        <v>531173</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2075072309145628</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1899420554987206</v>
+        <v>0.1908269575838293</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2261056523824218</v>
+        <v>0.2260646404193736</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>346585</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>315115</v>
+        <v>312651</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>380711</v>
+        <v>379459</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2461646588468207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2238131097089154</v>
+        <v>0.2220623802928444</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2704026076383785</v>
+        <v>0.2695139666912104</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>211</v>
@@ -2267,19 +2267,19 @@
         <v>224846</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>197590</v>
+        <v>198680</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>252183</v>
+        <v>251501</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2387639681732222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2098204903952313</v>
+        <v>0.2109784162262831</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2677923054321562</v>
+        <v>0.2670679619128293</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>540</v>
@@ -2288,19 +2288,19 @@
         <v>571431</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>529990</v>
+        <v>531674</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>613413</v>
+        <v>614496</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2431985560844293</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2255610917123136</v>
+        <v>0.2262778771109173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2610655893660361</v>
+        <v>0.2615267844582624</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>562700</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>524037</v>
+        <v>527717</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>598854</v>
+        <v>602091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3996621159194104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3722009026926617</v>
+        <v>0.3748147952867491</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4253404850914128</v>
+        <v>0.4276396915531264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>318</v>
@@ -2338,19 +2338,19 @@
         <v>348365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>316946</v>
+        <v>317604</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>379510</v>
+        <v>378671</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3699275960087691</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3365641325001162</v>
+        <v>0.3372627265091165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4030008705313459</v>
+        <v>0.4021095546428168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>841</v>
@@ -2359,19 +2359,19 @@
         <v>911065</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>864723</v>
+        <v>863647</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>964592</v>
+        <v>960334</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3877448982521502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.368022094786239</v>
+        <v>0.3675639228453314</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4105258442263113</v>
+        <v>0.4087136486365154</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>25167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16545</v>
+        <v>16910</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35679</v>
+        <v>35523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1781087407814062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1170908123039933</v>
+        <v>0.1196749446517403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2525068011609241</v>
+        <v>0.2514039970453061</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2723,19 +2723,19 @@
         <v>10936</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5720</v>
+        <v>5937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17873</v>
+        <v>17494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1582052314196108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08273868554950521</v>
+        <v>0.08588412135333919</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2585521246968017</v>
+        <v>0.2530723466502645</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2744,19 +2744,19 @@
         <v>36103</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25662</v>
+        <v>24988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48272</v>
+        <v>48289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.171570155301899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1219515182902312</v>
+        <v>0.1187479286114939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2294002410679739</v>
+        <v>0.2294816107358043</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>26085</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17923</v>
+        <v>17695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35970</v>
+        <v>37406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1846055887266489</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1268431666403243</v>
+        <v>0.1252286671815341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2545641609900991</v>
+        <v>0.2647322820722864</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2794,19 +2794,19 @@
         <v>15070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8986</v>
+        <v>9175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22587</v>
+        <v>22158</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2180020976975728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.129994072480267</v>
+        <v>0.1327255701991432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3267376669218627</v>
+        <v>0.3205295691687845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -2815,19 +2815,19 @@
         <v>41155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31131</v>
+        <v>30340</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54832</v>
+        <v>53227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1955768161948394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1479428990741602</v>
+        <v>0.1441842713427191</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2605742182239697</v>
+        <v>0.2529492283281888</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>32140</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22806</v>
+        <v>22317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43170</v>
+        <v>42742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2274637850650732</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1614007532877331</v>
+        <v>0.1579393733718074</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3055222520947294</v>
+        <v>0.3024907361895054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -2865,19 +2865,19 @@
         <v>16331</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10051</v>
+        <v>9947</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23493</v>
+        <v>23784</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2362399505425916</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1453963066798214</v>
+        <v>0.1438900196360475</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3398418960282832</v>
+        <v>0.3440552123164683</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -2886,19 +2886,19 @@
         <v>48471</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37330</v>
+        <v>37267</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61305</v>
+        <v>62232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2303468800567133</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1774035382394162</v>
+        <v>0.1770997829337695</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2913354631571095</v>
+        <v>0.2957407615539844</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>19394</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12363</v>
+        <v>11735</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29169</v>
+        <v>28979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1372566380481464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08749795304473451</v>
+        <v>0.08305306889566186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2064320073835576</v>
+        <v>0.2050901966901068</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2936,19 +2936,19 @@
         <v>12535</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6736</v>
+        <v>7579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19426</v>
+        <v>19572</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1813260941020021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09744090024673169</v>
+        <v>0.1096328196849952</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2810110692483465</v>
+        <v>0.2831263891185932</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2957,19 +2957,19 @@
         <v>31929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22915</v>
+        <v>22267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43360</v>
+        <v>44247</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1517340802019722</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1088963018329117</v>
+        <v>0.1058161175343183</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2060557410880169</v>
+        <v>0.210273076258732</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>38513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28612</v>
+        <v>28564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50736</v>
+        <v>49300</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2725652473787253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2024900674307157</v>
+        <v>0.2021502412352857</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.359071337754773</v>
+        <v>0.3489059805467651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -3007,19 +3007,19 @@
         <v>14256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8275</v>
+        <v>8948</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21363</v>
+        <v>21378</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2062266262382227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.119702226648586</v>
+        <v>0.1294419926555097</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3090367392772765</v>
+        <v>0.3092530229718053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>49</v>
@@ -3028,19 +3028,19 @@
         <v>52769</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40055</v>
+        <v>41107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65981</v>
+        <v>65809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2507720682445761</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1903517889652442</v>
+        <v>0.195350181246903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3135554249934746</v>
+        <v>0.3127403937126936</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>94604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78180</v>
+        <v>77819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116296</v>
+        <v>114852</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1024737139291611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08468340311681868</v>
+        <v>0.08429245613044614</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1259700614396023</v>
+        <v>0.1244063342400783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -3153,19 +3153,19 @@
         <v>73510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58238</v>
+        <v>59051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91027</v>
+        <v>90526</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1129974001473366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0895224999240718</v>
+        <v>0.09077242135879882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1399244901433456</v>
+        <v>0.1391549710164053</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -3174,19 +3174,19 @@
         <v>168114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144043</v>
+        <v>144324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191765</v>
+        <v>196999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1068239208632671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09152893032020043</v>
+        <v>0.09170723925234815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1218527348817507</v>
+        <v>0.125178447434177</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>126528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108446</v>
+        <v>107186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150123</v>
+        <v>148339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.137053459367971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1174675751615768</v>
+        <v>0.1161024079746271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.162611613152548</v>
+        <v>0.1606790910024646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>94</v>
@@ -3224,19 +3224,19 @@
         <v>96698</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79717</v>
+        <v>80370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114570</v>
+        <v>117011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1486413254663493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.122538541097841</v>
+        <v>0.1235425751898488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1761140225630881</v>
+        <v>0.1798660304056083</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>215</v>
@@ -3245,19 +3245,19 @@
         <v>223226</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>196373</v>
+        <v>195486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>251628</v>
+        <v>251367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1418435694498922</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1247805950885565</v>
+        <v>0.1242168875998561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1598911028435025</v>
+        <v>0.1597253989274012</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>266933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>239993</v>
+        <v>240032</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>296068</v>
+        <v>297197</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2891385205183626</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2599570538618003</v>
+        <v>0.25999978121568</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3206968636296849</v>
+        <v>0.3219203056873975</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>186</v>
@@ -3295,19 +3295,19 @@
         <v>186920</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>162490</v>
+        <v>162742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>208966</v>
+        <v>210701</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.287329613554878</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2497761762741822</v>
+        <v>0.2501639055498424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3212171116808528</v>
+        <v>0.3238850321209424</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>435</v>
@@ -3316,19 +3316,19 @@
         <v>453854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>420261</v>
+        <v>418194</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>489902</v>
+        <v>488586</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2883907673591974</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2670452260885605</v>
+        <v>0.2657316507595558</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.311296817037714</v>
+        <v>0.3104606571366152</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>210510</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>184862</v>
+        <v>184109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235528</v>
+        <v>236196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2280213796840717</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.200240411168235</v>
+        <v>0.1994248945084829</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2551213951245186</v>
+        <v>0.2558449525070678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -3366,19 +3366,19 @@
         <v>162313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140474</v>
+        <v>141137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184454</v>
+        <v>185292</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.24950380439093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2159336297158962</v>
+        <v>0.2169519008989115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2835387502590068</v>
+        <v>0.2848272489100407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -3387,19 +3387,19 @@
         <v>372823</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>338882</v>
+        <v>340735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>408252</v>
+        <v>411131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2369016323810575</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2153349332622103</v>
+        <v>0.2165122318747957</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2594141146816644</v>
+        <v>0.2612438465799527</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>224627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>200091</v>
+        <v>198401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>255074</v>
+        <v>250178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2433129265004336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.216735779355111</v>
+        <v>0.2149058818759249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2762932252493767</v>
+        <v>0.2709892563249214</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -3437,19 +3437,19 @@
         <v>131103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111517</v>
+        <v>111716</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153317</v>
+        <v>153852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2015278564405062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.171421230757191</v>
+        <v>0.1717276828057907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2356752497776634</v>
+        <v>0.2364982586887425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -3458,19 +3458,19 @@
         <v>355729</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>321425</v>
+        <v>324975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>390147</v>
+        <v>389319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2260401099465857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2042420851360744</v>
+        <v>0.2064977915589939</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2479097287585197</v>
+        <v>0.2473839269400574</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>15644</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9007</v>
+        <v>8969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25869</v>
+        <v>26429</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04489623005805879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02584943848817108</v>
+        <v>0.02573973918922384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07424320695895242</v>
+        <v>0.0758509865734273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3586,16 +3586,16 @@
         <v>25020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47697</v>
+        <v>49202</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1151671214113767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08111351209324454</v>
+        <v>0.08111358437388709</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1546329169240001</v>
+        <v>0.1595132599829853</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -3604,19 +3604,19 @@
         <v>51167</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>38154</v>
+        <v>38969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>67849</v>
+        <v>68408</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07789298631649734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05808250773484474</v>
+        <v>0.05932366361160997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1032885953203784</v>
+        <v>0.1041392055710388</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>41883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30825</v>
+        <v>30806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>56088</v>
+        <v>56266</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1202033017656894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08846661372402753</v>
+        <v>0.08841125374448623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1609703217090373</v>
+        <v>0.1614818491269945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -3654,19 +3654,19 @@
         <v>45256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34989</v>
+        <v>34968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58784</v>
+        <v>60641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1467191843551563</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1134344189171292</v>
+        <v>0.1133665185441185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1905770855506153</v>
+        <v>0.1965977339615772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -3675,19 +3675,19 @@
         <v>87139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69334</v>
+        <v>71321</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105487</v>
+        <v>106489</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1326542341209213</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1055486385550271</v>
+        <v>0.1085741131916551</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1605858883786077</v>
+        <v>0.1621098987806933</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>95537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78990</v>
+        <v>79303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>114425</v>
+        <v>115352</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.274187406733326</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2266987784569349</v>
+        <v>0.2275946966237395</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3283943748022529</v>
+        <v>0.3310535683203323</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -3725,19 +3725,19 @@
         <v>68746</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>55220</v>
+        <v>56377</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85063</v>
+        <v>86819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2228723857133135</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1790217057044322</v>
+        <v>0.1827719876613427</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2757739608473272</v>
+        <v>0.2814649246120651</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>155</v>
@@ -3746,19 +3746,19 @@
         <v>164283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143334</v>
+        <v>142752</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>188962</v>
+        <v>188294</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2500916651199097</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.218200224434225</v>
+        <v>0.2173144846957896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2876613808404001</v>
+        <v>0.2866436017104096</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>89120</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>70420</v>
+        <v>73041</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105827</v>
+        <v>106584</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2557708464323973</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.202102242218339</v>
+        <v>0.2096236417982169</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3037171591066854</v>
+        <v>0.3058894974278203</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -3796,19 +3796,19 @@
         <v>64558</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51573</v>
+        <v>51231</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79417</v>
+        <v>79933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2092971815926193</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1671972808348869</v>
+        <v>0.1660915703418506</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2574699877800771</v>
+        <v>0.2591430973298937</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -3817,19 +3817,19 @@
         <v>153679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>131568</v>
+        <v>132824</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>175042</v>
+        <v>176323</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2339484365892622</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2002895930238074</v>
+        <v>0.2022005451947463</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2664699360766258</v>
+        <v>0.2684204311050844</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>106253</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89473</v>
+        <v>89284</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>122946</v>
+        <v>123399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3049422150105285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2567818478108432</v>
+        <v>0.256240808206219</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3528479491829884</v>
+        <v>0.3541476702425269</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -3867,19 +3867,19 @@
         <v>94369</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78515</v>
+        <v>78591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111481</v>
+        <v>111536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3059441269275343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2545436185771991</v>
+        <v>0.2547912917492703</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3614193799566208</v>
+        <v>0.3615990824236355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>186</v>
@@ -3888,19 +3888,19 @@
         <v>200623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>178550</v>
+        <v>175785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>224303</v>
+        <v>223846</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3054126778534095</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2718102761039485</v>
+        <v>0.2676017013825197</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3414612604882815</v>
+        <v>0.3407650867750391</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>135414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>114733</v>
+        <v>112279</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159806</v>
+        <v>160108</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09583856927419167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08120171912720701</v>
+        <v>0.07946493871655975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1131017298848781</v>
+        <v>0.1133159440294634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -4013,19 +4013,19 @@
         <v>119970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99921</v>
+        <v>100128</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142411</v>
+        <v>142536</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1166880000680557</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09718793470385652</v>
+        <v>0.09738861243565154</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1385148991274691</v>
+        <v>0.1386370215887604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>238</v>
@@ -4034,19 +4034,19 @@
         <v>255384</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>224533</v>
+        <v>223475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>286717</v>
+        <v>284773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1046199153894392</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09198158108217706</v>
+        <v>0.09154819013254537</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1174557131530252</v>
+        <v>0.1166594252570144</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>194496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>169044</v>
+        <v>169331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220873</v>
+        <v>220335</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1376535018230013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1196403343980313</v>
+        <v>0.119842976710193</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1563218087961853</v>
+        <v>0.1559412333208144</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>155</v>
@@ -4084,19 +4084,19 @@
         <v>157024</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>133716</v>
+        <v>133931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>179153</v>
+        <v>182409</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1527282814132846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.130058322981964</v>
+        <v>0.1302669011255241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1742520005441601</v>
+        <v>0.177419534125877</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>338</v>
@@ -4105,19 +4105,19 @@
         <v>351520</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>317066</v>
+        <v>316817</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>385240</v>
+        <v>388553</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1440026850933813</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1298883288976268</v>
+        <v>0.1297864159675648</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1578163478807836</v>
+        <v>0.1591736526685273</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>394611</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>364403</v>
+        <v>358947</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>426767</v>
+        <v>429360</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2792838039309944</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2579044050577948</v>
+        <v>0.2540427572232179</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3020423512437319</v>
+        <v>0.3038772284404429</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>271</v>
@@ -4155,19 +4155,19 @@
         <v>271997</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>246767</v>
+        <v>244494</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>301257</v>
+        <v>302798</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2645563300559797</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2400168519348402</v>
+        <v>0.2378061520463904</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2930161660944324</v>
+        <v>0.2945144757719864</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>636</v>
@@ -4176,19 +4176,19 @@
         <v>666608</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>621347</v>
+        <v>620388</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>706227</v>
+        <v>710759</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.273080898596148</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2545394334926437</v>
+        <v>0.2541467197740789</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2893111870287447</v>
+        <v>0.2911678052214153</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>319024</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288432</v>
+        <v>288513</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>350448</v>
+        <v>353875</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2257877508186127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2041362323414959</v>
+        <v>0.2041935664196282</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2480278926677188</v>
+        <v>0.2504532931784145</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>237</v>
@@ -4226,19 +4226,19 @@
         <v>239406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>214573</v>
+        <v>214794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>268677</v>
+        <v>265907</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2328571202608501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2087028258533599</v>
+        <v>0.2089181785260823</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.261327114894796</v>
+        <v>0.2586329002627895</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>537</v>
@@ -4247,19 +4247,19 @@
         <v>558430</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>522228</v>
+        <v>518715</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>609077</v>
+        <v>602813</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2287652220264651</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2139345511131745</v>
+        <v>0.212495615687588</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2495128860407857</v>
+        <v>0.2469471037231333</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>369393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>335141</v>
+        <v>338356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>404180</v>
+        <v>406280</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2614363741531999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2371945047641969</v>
+        <v>0.2394700807747015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2860567493884401</v>
+        <v>0.2875427881067374</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -4297,19 +4297,19 @@
         <v>239728</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>212812</v>
+        <v>213130</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>264416</v>
+        <v>268828</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2331702682018299</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2069902771722735</v>
+        <v>0.2072996256369882</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2571823979814681</v>
+        <v>0.2614742854715566</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>569</v>
@@ -4318,19 +4318,19 @@
         <v>609122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>570582</v>
+        <v>570919</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>657652</v>
+        <v>655219</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2495312788945663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2337434430290889</v>
+        <v>0.2338814072238653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2694122083016365</v>
+        <v>0.2684152523344618</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>11027</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4712</v>
+        <v>3772</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20502</v>
+        <v>21024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2697710074362162</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1152741687315338</v>
+        <v>0.09228787577114632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5015691561896487</v>
+        <v>0.5143243418020736</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4682,19 +4682,19 @@
         <v>5334</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2206</v>
+        <v>2361</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9439</v>
+        <v>9743</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2434980908740223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1006957434401546</v>
+        <v>0.1077926296564215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4308651043181978</v>
+        <v>0.4447485107666752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4703,19 +4703,19 @@
         <v>16361</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9592</v>
+        <v>8775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27865</v>
+        <v>28710</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2606035217346695</v>
+        <v>0.2606035217346694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1527867567663997</v>
+        <v>0.1397683220090867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.443833396567295</v>
+        <v>0.4572949542270328</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>5122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13443</v>
+        <v>12202</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1253002666501965</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02812835631801078</v>
+        <v>0.02833938380424759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3288706561956187</v>
+        <v>0.2985034527678845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4753,19 +4753,19 @@
         <v>4203</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1401</v>
+        <v>1425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8696</v>
+        <v>8950</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1918480041163566</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06394231885816112</v>
+        <v>0.06504229293556779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3969449236962868</v>
+        <v>0.4085357260760396</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -4774,19 +4774,19 @@
         <v>9325</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3876</v>
+        <v>4215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18529</v>
+        <v>18889</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1485209635319884</v>
+        <v>0.1485209635319883</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06174428800745192</v>
+        <v>0.06713079043247018</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2951250128582126</v>
+        <v>0.3008608308642515</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>15705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8181</v>
+        <v>9118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22797</v>
+        <v>24670</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3842217758855296</v>
+        <v>0.3842217758855297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2001328173410661</v>
+        <v>0.2230532639835258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5577081320795427</v>
+        <v>0.6035427745867027</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4824,19 +4824,19 @@
         <v>7825</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4410</v>
+        <v>4286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11560</v>
+        <v>11997</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3571707870572935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2012865046443749</v>
+        <v>0.1956672318047646</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5276724315796936</v>
+        <v>0.5476282802653667</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -4845,19 +4845,19 @@
         <v>23530</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15885</v>
+        <v>15379</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32617</v>
+        <v>32501</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3747827951500446</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2530146218488719</v>
+        <v>0.2449477015540913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5195240540656025</v>
+        <v>0.5176797054234614</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>6291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2641</v>
+        <v>2719</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11859</v>
+        <v>12308</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1539125810301802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06460360846473771</v>
+        <v>0.06652201513873335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2901224624425973</v>
+        <v>0.3011176777999469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4895,19 +4895,19 @@
         <v>1934</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4929</v>
+        <v>4760</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.088262678977497</v>
+        <v>0.08826267897749701</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02457860474545816</v>
+        <v>0.02433726902820377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2249786542646627</v>
+        <v>0.2172802833580245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -4916,19 +4916,19 @@
         <v>8225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4293</v>
+        <v>3949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15326</v>
+        <v>14746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1310051684880203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06838354761719913</v>
+        <v>0.06289466208150997</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2441051240206354</v>
+        <v>0.234872070055446</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>2730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8214</v>
+        <v>8287</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06679436899787744</v>
+        <v>0.06679436899787745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01741472624401829</v>
+        <v>0.01639404525899554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2009517683674601</v>
+        <v>0.2027403721758209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4966,19 +4966,19 @@
         <v>2612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6141</v>
+        <v>6181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1192204389748305</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0287242535583125</v>
+        <v>0.0267984625439909</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2803169156016522</v>
+        <v>0.2821521969395451</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -4987,19 +4987,19 @@
         <v>5342</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2164</v>
+        <v>2248</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10766</v>
+        <v>10719</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08508755109527748</v>
+        <v>0.08508755109527745</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03446037749278148</v>
+        <v>0.03581150200994347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1714849362915197</v>
+        <v>0.1707343162972594</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>45841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32926</v>
+        <v>32701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60812</v>
+        <v>61038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1552340886349228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1115004434872532</v>
+        <v>0.11073760301737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2059314367601149</v>
+        <v>0.2066968759773691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -5112,19 +5112,19 @@
         <v>61902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49445</v>
+        <v>48833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75408</v>
+        <v>75176</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2487359651235493</v>
+        <v>0.2487359651235492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1986815983507545</v>
+        <v>0.1962224839804903</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.303005850225357</v>
+        <v>0.3020748179300223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -5133,19 +5133,19 @@
         <v>107743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87993</v>
+        <v>89813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127766</v>
+        <v>127408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1979956396110838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1617024334575014</v>
+        <v>0.1650464385656279</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2347918742190977</v>
+        <v>0.2341335903091038</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>46026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31860</v>
+        <v>33051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60875</v>
+        <v>61702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1558598364989285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1078901340058959</v>
+        <v>0.1119217448178123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2061435360099254</v>
+        <v>0.2089446582273387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -5183,19 +5183,19 @@
         <v>38634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28766</v>
+        <v>28325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49084</v>
+        <v>50312</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1552398939912832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1155865073503108</v>
+        <v>0.1138139921149806</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1972307948595138</v>
+        <v>0.2021654244516368</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>82</v>
@@ -5204,19 +5204,19 @@
         <v>84660</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65900</v>
+        <v>68321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>103897</v>
+        <v>104102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1555763159521918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1211016255649734</v>
+        <v>0.1255502371754806</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1909281027238421</v>
+        <v>0.1913046957440427</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>83147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67004</v>
+        <v>66693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102316</v>
+        <v>101724</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2815661132068357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2268986779404362</v>
+        <v>0.2258458736181247</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3464787184385774</v>
+        <v>0.3444736968123546</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>92</v>
@@ -5254,19 +5254,19 @@
         <v>65356</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53404</v>
+        <v>54484</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78689</v>
+        <v>78918</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2626157944638139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2145890304652083</v>
+        <v>0.218926375753502</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.316187495133876</v>
+        <v>0.3171093647972496</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>162</v>
@@ -5275,19 +5275,19 @@
         <v>148503</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>126176</v>
+        <v>128510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>171048</v>
+        <v>170566</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2728994954727756</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2318697410625656</v>
+        <v>0.2361582115044965</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3143287557537259</v>
+        <v>0.3134437121701769</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>50262</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36938</v>
+        <v>37608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66705</v>
+        <v>65768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1702062065542153</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1250839386750065</v>
+        <v>0.1273554199556158</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2258876502828624</v>
+        <v>0.2227137432894678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -5325,19 +5325,19 @@
         <v>36884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27827</v>
+        <v>27301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47163</v>
+        <v>47923</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1482096477071848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1118159782254064</v>
+        <v>0.109701634067155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1895126090141223</v>
+        <v>0.1925647449864748</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>95</v>
@@ -5346,19 +5346,19 @@
         <v>87147</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72031</v>
+        <v>71565</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106594</v>
+        <v>107222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1601464408279965</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1323690067412734</v>
+        <v>0.1315124637737692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1958839502643377</v>
+        <v>0.1970380126744048</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>70026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53751</v>
+        <v>53110</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90363</v>
+        <v>86769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2371337551050978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1820219035449452</v>
+        <v>0.1798495608560607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3060024351137512</v>
+        <v>0.2938323961333172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -5396,19 +5396,19 @@
         <v>46090</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34896</v>
+        <v>35543</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59638</v>
+        <v>59134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1851986987141688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.140219262205352</v>
+        <v>0.1428184904014075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2396386916562961</v>
+        <v>0.2376129585067619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>113</v>
@@ -5417,19 +5417,19 @@
         <v>116116</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>97635</v>
+        <v>96394</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139624</v>
+        <v>138149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2133821081359523</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1794202960927305</v>
+        <v>0.1771392833472637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2565817273120202</v>
+        <v>0.2538721541014709</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>20912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12424</v>
+        <v>13088</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32038</v>
+        <v>32702</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1532112623070915</v>
+        <v>0.1532112623070916</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09102185699484062</v>
+        <v>0.09589050435622011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2347279189679309</v>
+        <v>0.2395950343228906</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -5542,19 +5542,19 @@
         <v>19963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13637</v>
+        <v>13125</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28329</v>
+        <v>27911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1750097492381233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1195521100017903</v>
+        <v>0.1150661388810868</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2483515889328586</v>
+        <v>0.2446852525334659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -5563,19 +5563,19 @@
         <v>40875</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29318</v>
+        <v>29295</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54133</v>
+        <v>55463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.163135188820319</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1170102924170957</v>
+        <v>0.1169189980320974</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2160486673342905</v>
+        <v>0.2213574635326137</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>11143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5531</v>
+        <v>5447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21076</v>
+        <v>20786</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08163994418999318</v>
+        <v>0.08163994418999319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04052502679914229</v>
+        <v>0.03990747316451072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1544142023853246</v>
+        <v>0.1522897404509793</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -5613,19 +5613,19 @@
         <v>8235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3920</v>
+        <v>4164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14971</v>
+        <v>14836</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07218944951004791</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03436736289011965</v>
+        <v>0.03650478590823899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1312504662342531</v>
+        <v>0.1300645329929418</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -5634,19 +5634,19 @@
         <v>19378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11938</v>
+        <v>12008</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29897</v>
+        <v>30530</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07733753480652758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04764668620480374</v>
+        <v>0.04792647077357434</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1193211290026696</v>
+        <v>0.1218478380824121</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>33746</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23023</v>
+        <v>23586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46675</v>
+        <v>46202</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2472411943984503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1686770665441328</v>
+        <v>0.172807350369597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3419636404607677</v>
+        <v>0.3385008529652453</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -5684,19 +5684,19 @@
         <v>27066</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19686</v>
+        <v>19923</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35056</v>
+        <v>36029</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2372803937638612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1725832732077919</v>
+        <v>0.1746596741962284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3073277530797873</v>
+        <v>0.3158541876475811</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -5705,19 +5705,19 @@
         <v>60812</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47421</v>
+        <v>48264</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76771</v>
+        <v>76233</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2427064643585478</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1892610895349737</v>
+        <v>0.192626132495635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3064001449074579</v>
+        <v>0.3042518035609602</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>26816</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17391</v>
+        <v>17639</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37521</v>
+        <v>36786</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1964657127212942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1274174825236298</v>
+        <v>0.1292305780365392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2748976624098918</v>
+        <v>0.2695143797067832</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -5755,19 +5755,19 @@
         <v>29810</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21914</v>
+        <v>22009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39311</v>
+        <v>39888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2613325121611584</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1921126967959604</v>
+        <v>0.1929440716165871</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3446259978152967</v>
+        <v>0.349683960150256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -5776,19 +5776,19 @@
         <v>56625</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43765</v>
+        <v>44949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71803</v>
+        <v>70227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2259968151701101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1746686194695168</v>
+        <v>0.1793945685778765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2865731071700464</v>
+        <v>0.2802838768143844</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>43874</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31738</v>
+        <v>32101</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59150</v>
+        <v>58166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3214418863831708</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2325300161203156</v>
+        <v>0.2351905601752302</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4333674848645583</v>
+        <v>0.4261585629393126</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -5826,19 +5826,19 @@
         <v>28995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20417</v>
+        <v>20685</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38136</v>
+        <v>38208</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2541878953268091</v>
+        <v>0.2541878953268092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1789911986046662</v>
+        <v>0.1813393936563891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3343291353247021</v>
+        <v>0.3349538142013244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -5847,19 +5847,19 @@
         <v>72868</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58229</v>
+        <v>58281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>88960</v>
+        <v>89599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2908239968444955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2323959684359954</v>
+        <v>0.2326036175411634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3550457941161599</v>
+        <v>0.3575976446802079</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>77780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60415</v>
+        <v>60055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99400</v>
+        <v>100004</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1645550603321997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1278162904092262</v>
+        <v>0.1270551116271684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2102955834252627</v>
+        <v>0.2115725504541643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -5972,19 +5972,19 @@
         <v>87199</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73429</v>
+        <v>71873</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>104243</v>
+        <v>103544</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2265851133788639</v>
+        <v>0.2265851133788638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1908028320596464</v>
+        <v>0.1867610451938424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2708731201882874</v>
+        <v>0.2690561508986373</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -5993,19 +5993,19 @@
         <v>164979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141644</v>
+        <v>140981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191022</v>
+        <v>189308</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1923935516254435</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1651804511812377</v>
+        <v>0.1644079143352456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2227630194446901</v>
+        <v>0.2207650209910761</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>62291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46631</v>
+        <v>47320</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>83501</v>
+        <v>83688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1317849988318089</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09865564743938295</v>
+        <v>0.1001129641960578</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.176657955164419</v>
+        <v>0.1770550003263611</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -6043,19 +6043,19 @@
         <v>51071</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>39182</v>
+        <v>40963</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>63990</v>
+        <v>64494</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1327073906737373</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1018132245941079</v>
+        <v>0.1064406127725636</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1662755289703565</v>
+        <v>0.167585664211063</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>109</v>
@@ -6064,19 +6064,19 @@
         <v>113362</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>94227</v>
+        <v>93713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>137569</v>
+        <v>136552</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1321989594202541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1098849587446065</v>
+        <v>0.1092847280091861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1604284998331908</v>
+        <v>0.1592421799246576</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>132598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>111964</v>
+        <v>111872</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>155458</v>
+        <v>155750</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2805319059937179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2368768856226542</v>
+        <v>0.2366827969300418</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3288948350623607</v>
+        <v>0.3295115971721153</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>140</v>
@@ -6114,19 +6114,19 @@
         <v>100247</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85680</v>
+        <v>86243</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114964</v>
+        <v>115369</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.260488836717339</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2226370775015964</v>
+        <v>0.2240992408734536</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2987299222137261</v>
+        <v>0.2997826796160937</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>251</v>
@@ -6135,19 +6135,19 @@
         <v>232845</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>204669</v>
+        <v>207346</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>261323</v>
+        <v>263890</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2715367692473313</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2386777591401763</v>
+        <v>0.2418000322520575</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3047468527101305</v>
+        <v>0.3077395995876636</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>83369</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>66143</v>
+        <v>66834</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>103006</v>
+        <v>103647</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1763799528803146</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1399345569205314</v>
+        <v>0.1413969781391841</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2179241990828428</v>
+        <v>0.2192815681760622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -6185,19 +6185,19 @@
         <v>68628</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57676</v>
+        <v>56096</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85541</v>
+        <v>82715</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1783271496464926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1498693707816343</v>
+        <v>0.1457645269770713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2222751438645612</v>
+        <v>0.2149330045153414</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -6206,19 +6206,19 @@
         <v>151997</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>131513</v>
+        <v>129944</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177036</v>
+        <v>174092</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1772538360636919</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1533661988475152</v>
+        <v>0.1515362627242677</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2064537089093503</v>
+        <v>0.2030201177379315</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>116630</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>96712</v>
+        <v>95732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>142417</v>
+        <v>141090</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2467480819619589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2046091640202818</v>
+        <v>0.2025355008833463</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3013043715502703</v>
+        <v>0.2984978181615108</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -6256,19 +6256,19 @@
         <v>77696</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65009</v>
+        <v>63632</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94421</v>
+        <v>94599</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2018915095835673</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1689245942782702</v>
+        <v>0.1653466220684101</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2453508410620739</v>
+        <v>0.2458115121113076</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>188</v>
@@ -6277,19 +6277,19 @@
         <v>194326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>169572</v>
+        <v>168684</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>221216</v>
+        <v>223361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2266168836432793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1977489322446806</v>
+        <v>0.1967138295808628</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2579753339956474</v>
+        <v>0.2604762021189241</v>
       </c>
     </row>
     <row r="27">
